--- a/Devauspaivakirja.xlsx
+++ b/Devauspaivakirja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouSports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3700C1-E6E6-45A6-963A-3614EAB7643F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD3973-5801-4F2B-9507-DE9D9CA30C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{A84D29A5-6838-4082-89A1-87CB0042D78E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>pvm</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>NBA api:n toiminnan tutkimista + pelien scoret fronttiin</t>
+  </si>
+  <si>
+    <t>UI ja logo suunnittelu</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A7ECA-FD19-4A73-9498-6038A34B7408}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +489,18 @@
         <v>150</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B7">
+        <f>10+70</f>
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
